--- a/Übungen/05_Netzplan_Wiederholung2.xlsx
+++ b/Übungen/05_Netzplan_Wiederholung2.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1_2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="17">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -81,11 +82,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -101,12 +103,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -150,12 +146,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDD835"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB2FF59"/>
         <bgColor rgb="FFFFFF99"/>
       </patternFill>
@@ -176,6 +166,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF43A047"/>
         <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDD835"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -289,7 +285,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,7 +294,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -306,7 +302,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,7 +310,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -322,15 +318,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -342,23 +334,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -366,7 +362,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,8 +378,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -478,8 +490,8 @@
   </sheetPr>
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -557,9 +569,15 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-      <c r="U2" s="6"/>
+      <c r="U2" s="6" t="n">
+        <f aca="false">R8</f>
+        <v>12</v>
+      </c>
       <c r="V2" s="7"/>
-      <c r="W2" s="8"/>
+      <c r="W2" s="6" t="n">
+        <f aca="false">U2+U4</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -590,13 +608,13 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="10" t="s">
+      <c r="T3" s="8"/>
+      <c r="U3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="11"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -625,14 +643,20 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="13" t="n">
+      <c r="T4" s="11"/>
+      <c r="U4" s="12" t="n">
         <f aca="false">VLOOKUP(U3,$A$2:$H$9,8)</f>
         <v>3</v>
       </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="15"/>
-      <c r="Y4" s="12"/>
+      <c r="V4" s="13" t="n">
+        <f aca="false">W5-W2</f>
+        <v>13</v>
+      </c>
+      <c r="W4" s="14" t="n">
+        <f aca="false">AE8-W2</f>
+        <v>13</v>
+      </c>
+      <c r="Y4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -659,11 +683,17 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="16"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="15" t="n">
+        <f aca="false">W5-U4</f>
+        <v>25</v>
+      </c>
       <c r="V5" s="7"/>
-      <c r="W5" s="17"/>
-      <c r="Y5" s="12"/>
+      <c r="W5" s="16" t="n">
+        <f aca="false">AE11</f>
+        <v>28</v>
+      </c>
+      <c r="Y5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -691,8 +721,8 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="12"/>
-      <c r="Y6" s="12"/>
+      <c r="T6" s="11"/>
+      <c r="Y6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -722,8 +752,8 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="12"/>
-      <c r="Y7" s="12"/>
+      <c r="T7" s="11"/>
+      <c r="Y7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -744,23 +774,41 @@
       <c r="H8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="P8" s="6"/>
+      <c r="P8" s="17" t="n">
+        <f aca="false">M11</f>
+        <v>4</v>
+      </c>
       <c r="Q8" s="7"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="6"/>
+      <c r="R8" s="6" t="n">
+        <f aca="false">P8+P10</f>
+        <v>12</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="17" t="n">
+        <f aca="false">R8</f>
+        <v>12</v>
+      </c>
       <c r="V8" s="7"/>
-      <c r="W8" s="8"/>
+      <c r="W8" s="6" t="n">
+        <f aca="false">U8+U10</f>
+        <v>21</v>
+      </c>
       <c r="Y8" s="18"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="6"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="17" t="n">
+        <f aca="false">MAX(W2,W14,AB20)</f>
+        <v>28</v>
+      </c>
       <c r="AF8" s="7"/>
-      <c r="AG8" s="8"/>
+      <c r="AG8" s="6" t="n">
+        <f aca="false">AE8+AE10</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
@@ -781,253 +829,357 @@
       <c r="H9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="10" t="s">
+      <c r="O9" s="8"/>
+      <c r="P9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="10" t="s">
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="8"/>
       <c r="Z9" s="21"/>
       <c r="AA9" s="21"/>
       <c r="AB9" s="21"/>
       <c r="AC9" s="21"/>
       <c r="AD9" s="21"/>
-      <c r="AE9" s="10" t="s">
+      <c r="AE9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O10" s="12"/>
-      <c r="P10" s="13" t="n">
+      <c r="O10" s="11"/>
+      <c r="P10" s="12" t="n">
         <f aca="false">VLOOKUP(P9,$A$2:$H$9,8)</f>
         <v>8</v>
       </c>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="9"/>
-      <c r="U10" s="13" t="n">
+      <c r="Q10" s="13" t="n">
+        <f aca="false">R11-R8</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="14" t="n">
+        <f aca="false">MIN(U2,U8,U14)-R8</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="8"/>
+      <c r="U10" s="12" t="n">
         <f aca="false">VLOOKUP(U9,$A$2:$H$9,8)</f>
         <v>9</v>
       </c>
-      <c r="V10" s="14"/>
-      <c r="W10" s="15"/>
+      <c r="V10" s="13" t="n">
+        <f aca="false">W11-W8</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="14" t="n">
+        <f aca="false">Z20-W8</f>
+        <v>0</v>
+      </c>
       <c r="X10" s="3"/>
-      <c r="Y10" s="12"/>
+      <c r="Y10" s="11"/>
       <c r="Z10" s="22"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="13" t="n">
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="12" t="n">
         <f aca="false">VLOOKUP(AE9,$A$2:$H$9,8)</f>
         <v>8</v>
       </c>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="15"/>
+      <c r="AF10" s="13" t="n">
+        <f aca="false">AG11-AG8</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="16"/>
+      <c r="M11" s="6" t="n">
+        <f aca="false">K11+K13</f>
+        <v>4</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="15" t="n">
+        <f aca="false">R11-P10</f>
+        <v>4</v>
+      </c>
       <c r="Q11" s="7"/>
-      <c r="R11" s="17"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="16"/>
+      <c r="R11" s="16" t="n">
+        <f aca="false">MIN(U5,U11,U17)</f>
+        <v>12</v>
+      </c>
+      <c r="T11" s="11"/>
+      <c r="U11" s="15" t="n">
+        <f aca="false">W11-U10</f>
+        <v>12</v>
+      </c>
       <c r="V11" s="7"/>
-      <c r="W11" s="17"/>
-      <c r="Y11" s="12"/>
+      <c r="W11" s="16" t="n">
+        <f aca="false">Z23</f>
+        <v>21</v>
+      </c>
+      <c r="Y11" s="11"/>
       <c r="Z11" s="22"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="16"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="15" t="n">
+        <f aca="false">AG11-AE10</f>
+        <v>28</v>
+      </c>
       <c r="AF11" s="7"/>
-      <c r="AG11" s="17"/>
+      <c r="AG11" s="16" t="n">
+        <f aca="false">AG8</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="K12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
       <c r="O12" s="7"/>
-      <c r="T12" s="12"/>
-      <c r="Y12" s="12"/>
+      <c r="T12" s="11"/>
+      <c r="Y12" s="11"/>
       <c r="Z12" s="22"/>
-      <c r="AD12" s="12"/>
+      <c r="AD12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="13" t="n">
+      <c r="K13" s="12" t="n">
         <f aca="false">VLOOKUP(K12,$A$2:$H$9,8)</f>
         <v>4</v>
       </c>
-      <c r="L13" s="14" t="n">
+      <c r="L13" s="13" t="n">
+        <f aca="false">M14-M11</f>
         <v>0</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="9"/>
+      <c r="M13" s="14" t="n">
+        <f aca="false">MIN(P8,P14)-M11</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="8"/>
       <c r="O13" s="7"/>
-      <c r="T13" s="12"/>
-      <c r="Y13" s="12"/>
+      <c r="T13" s="11"/>
+      <c r="Y13" s="11"/>
       <c r="Z13" s="22"/>
-      <c r="AD13" s="12"/>
+      <c r="AD13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="16"/>
+      <c r="K14" s="15" t="n">
+        <f aca="false">M14-K13</f>
+        <v>0</v>
+      </c>
       <c r="L14" s="7"/>
-      <c r="M14" s="17"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="6"/>
+      <c r="M14" s="16" t="n">
+        <f aca="false">MIN(P11,P17)</f>
+        <v>4</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="17" t="n">
+        <f aca="false">M11</f>
+        <v>4</v>
+      </c>
       <c r="Q14" s="7"/>
-      <c r="R14" s="8"/>
+      <c r="R14" s="6" t="n">
+        <f aca="false">P14+P16</f>
+        <v>8</v>
+      </c>
       <c r="T14" s="18"/>
-      <c r="U14" s="6"/>
+      <c r="U14" s="17" t="n">
+        <f aca="false">MAX(R8,R14)</f>
+        <v>12</v>
+      </c>
       <c r="V14" s="7"/>
-      <c r="W14" s="8"/>
-      <c r="Y14" s="12"/>
+      <c r="W14" s="6" t="n">
+        <f aca="false">U14+U16</f>
+        <v>22</v>
+      </c>
+      <c r="Y14" s="11"/>
       <c r="Z14" s="22"/>
-      <c r="AD14" s="12"/>
+      <c r="AD14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O15" s="18"/>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
       <c r="X15" s="21"/>
-      <c r="Y15" s="23"/>
+      <c r="Y15" s="24"/>
       <c r="Z15" s="22"/>
-      <c r="AD15" s="12"/>
+      <c r="AD15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P16" s="13" t="n">
+      <c r="P16" s="12" t="n">
         <f aca="false">VLOOKUP(P15,$A$2:$H$9,8)</f>
         <v>4</v>
       </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="9"/>
-      <c r="U16" s="13" t="n">
+      <c r="Q16" s="13" t="n">
+        <f aca="false">R17-R14</f>
+        <v>10</v>
+      </c>
+      <c r="R16" s="14" t="n">
+        <f aca="false">MIN(U14,Z20)-R14</f>
+        <v>4</v>
+      </c>
+      <c r="S16" s="8"/>
+      <c r="U16" s="12" t="n">
         <f aca="false">VLOOKUP(U15,$A$2:$H$9,8)</f>
         <v>10</v>
       </c>
-      <c r="V16" s="14"/>
-      <c r="W16" s="15"/>
-      <c r="Y16" s="12"/>
-      <c r="AD16" s="12"/>
+      <c r="V16" s="13" t="n">
+        <f aca="false">W17-W14</f>
+        <v>6</v>
+      </c>
+      <c r="W16" s="14" t="n">
+        <f aca="false">AE8-W14</f>
+        <v>6</v>
+      </c>
+      <c r="Y16" s="11"/>
+      <c r="AD16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P17" s="16"/>
+      <c r="P17" s="15" t="n">
+        <f aca="false">R17-P16</f>
+        <v>14</v>
+      </c>
       <c r="Q17" s="7"/>
-      <c r="R17" s="17"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="16"/>
+      <c r="R17" s="16" t="n">
+        <f aca="false">MIN(U17,Z23)</f>
+        <v>18</v>
+      </c>
+      <c r="T17" s="11"/>
+      <c r="U17" s="15" t="n">
+        <f aca="false">W17-U16</f>
+        <v>18</v>
+      </c>
       <c r="V17" s="7"/>
-      <c r="W17" s="17"/>
-      <c r="Y17" s="12"/>
-      <c r="AD17" s="12"/>
+      <c r="W17" s="16" t="n">
+        <f aca="false">AE11</f>
+        <v>28</v>
+      </c>
+      <c r="Y17" s="11"/>
+      <c r="AD17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="AD18" s="12"/>
+      <c r="T18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="AD18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="AD19" s="12"/>
+      <c r="T19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="AD19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T20" s="12"/>
+      <c r="T20" s="11"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="Y20" s="18"/>
-      <c r="Z20" s="6"/>
+      <c r="Z20" s="17" t="n">
+        <f aca="false">MAX(W8,R14)</f>
+        <v>21</v>
+      </c>
       <c r="AA20" s="7"/>
-      <c r="AB20" s="8"/>
-      <c r="AD20" s="12"/>
+      <c r="AB20" s="6" t="n">
+        <f aca="false">Z20+Z22</f>
+        <v>28</v>
+      </c>
+      <c r="AD20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T21" s="18"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="10" t="s">
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
       <c r="AC21" s="18"/>
-      <c r="AD21" s="12"/>
+      <c r="AD21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-      <c r="Z22" s="13" t="n">
+      <c r="Z22" s="12" t="n">
         <f aca="false">VLOOKUP(Z21,$A$2:$H$9,8)</f>
         <v>7</v>
       </c>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="15"/>
+      <c r="AA22" s="13" t="n">
+        <f aca="false">AB23-AB20</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="14" t="n">
+        <f aca="false">AE8-AB20</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-      <c r="Z23" s="16"/>
+      <c r="Z23" s="15" t="n">
+        <f aca="false">AB23-Z22</f>
+        <v>21</v>
+      </c>
       <c r="AA23" s="7"/>
-      <c r="AB23" s="17"/>
+      <c r="AB23" s="16" t="n">
+        <f aca="false">AE11</f>
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1043,7 +1195,7 @@
     <mergeCell ref="U15:W15"/>
     <mergeCell ref="Z21:AB21"/>
   </mergeCells>
-  <conditionalFormatting sqref="L13 Q10 Q16 V4 V10 V16 AA22 AF10">
+  <conditionalFormatting sqref="AF10 AA22 V16 V10 V4 Q10 Q16 L13">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -1056,4 +1208,660 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AJ23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="3.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="12" t="n">
+        <f aca="false">VLOOKUP(U3,$A$2:$H$9,8)</f>
+        <v>3</v>
+      </c>
+      <c r="V4" s="13"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="0"/>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="11"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="0"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="11"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O10" s="11"/>
+      <c r="P10" s="12" t="n">
+        <f aca="false">VLOOKUP(P9,$A$2:$H$9,8)</f>
+        <v>8</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="8"/>
+      <c r="U10" s="0"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="12" t="n">
+        <f aca="false">VLOOKUP(Z9,$A$2:$H$9,8)</f>
+        <v>9</v>
+      </c>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="0"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="12" t="n">
+        <f aca="false">VLOOKUP(AE9,$A$2:$H$9,8)</f>
+        <v>8</v>
+      </c>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="16"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="16"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="O12" s="7"/>
+      <c r="T12" s="11"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="26"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="12" t="n">
+        <f aca="false">VLOOKUP(K12,$A$2:$H$9,8)</f>
+        <v>4</v>
+      </c>
+      <c r="L13" s="13" t="n">
+        <f aca="false">M14-M11</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="14" t="n">
+        <f aca="false">MIN(P8,P14)-M11</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="7"/>
+      <c r="T13" s="11"/>
+      <c r="X13" s="0"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="0"/>
+      <c r="AA13" s="0"/>
+      <c r="AB13" s="0"/>
+      <c r="AC13" s="0"/>
+      <c r="AD13" s="26"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="16"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="6"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="0"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0"/>
+      <c r="AB14" s="0"/>
+      <c r="AC14" s="0"/>
+      <c r="AD14" s="26"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O15" s="18"/>
+      <c r="P15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="0"/>
+      <c r="AA15" s="0"/>
+      <c r="AB15" s="0"/>
+      <c r="AC15" s="0"/>
+      <c r="AD15" s="26"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P16" s="12" t="n">
+        <f aca="false">VLOOKUP(P15,$A$2:$H$9,8)</f>
+        <v>4</v>
+      </c>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="8"/>
+      <c r="U16" s="12" t="n">
+        <f aca="false">VLOOKUP(U15,$A$2:$H$9,8)</f>
+        <v>10</v>
+      </c>
+      <c r="V16" s="13"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
+      <c r="AA16" s="0"/>
+      <c r="AB16" s="0"/>
+      <c r="AC16" s="0"/>
+      <c r="AD16" s="26"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P17" s="15"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="16"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="0"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="0"/>
+      <c r="AA17" s="0"/>
+      <c r="AB17" s="0"/>
+      <c r="AC17" s="0"/>
+      <c r="AD17" s="26"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="AD18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="AD19" s="11"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T20" s="11"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="6"/>
+      <c r="AD20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T21" s="18"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="11"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="Z22" s="12" t="n">
+        <f aca="false">VLOOKUP(Z21,$A$2:$H$9,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="Z21:AB21"/>
+  </mergeCells>
+  <conditionalFormatting sqref="AF10 AA22 V16 V4 Q10 Q16 L13 AA10">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Übungen/05_Netzplan_Wiederholung2.xlsx
+++ b/Übungen/05_Netzplan_Wiederholung2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="36">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -72,6 +72,63 @@
   </si>
   <si>
     <t xml:space="preserve">SEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorwärtsrechnen:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">größte FEZ der Vorgänger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAZ + Dauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im Anschluss Rückwärtsrechnen:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kleinste SAZ der Nachfolger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEZ – Dauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEZ – FEZ = SAZ - FAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kleinste FAZ der Nachfolger – FEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← Früheste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← Dauer &amp; Puffer:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtpuffer im Projekt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FP:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freier Puffer bis zum nächsten Arbeitspaket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← Späteste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anfangszeit →</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endzeit →</t>
   </si>
 </sst>
 </file>
@@ -82,7 +139,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -124,8 +181,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Alegreya Sans"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Alegreya Sans"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,7 +217,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB2FF59"/>
-        <bgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FF99CC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -174,8 +244,20 @@
         <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFDE7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFDE7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -259,6 +341,13 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -285,7 +374,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -384,6 +473,90 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -407,9 +580,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
         <b val="1"/>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -440,7 +627,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF8E24AA"/>
-      <rgbColor rgb="FFFFFDE7"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -457,7 +644,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFB2FF59"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFDE7"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -488,10 +675,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26:AB47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1181,8 +1368,760 @@
         <v>28</v>
       </c>
     </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="T26" s="0"/>
+      <c r="U26" s="0"/>
+      <c r="V26" s="0"/>
+      <c r="W26" s="0"/>
+      <c r="X26" s="0"/>
+      <c r="Y26" s="0"/>
+      <c r="Z26" s="0"/>
+      <c r="AA26" s="0"/>
+      <c r="AB26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="0"/>
+      <c r="E27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="0"/>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0"/>
+      <c r="X27" s="0"/>
+      <c r="Y27" s="0"/>
+      <c r="Z27" s="0"/>
+      <c r="AA27" s="0"/>
+      <c r="AB27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="0"/>
+      <c r="U28" s="0"/>
+      <c r="V28" s="0"/>
+      <c r="W28" s="0"/>
+      <c r="X28" s="0"/>
+      <c r="Y28" s="0"/>
+      <c r="Z28" s="0"/>
+      <c r="AA28" s="0"/>
+      <c r="AB28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="0"/>
+      <c r="E29" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="0"/>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0"/>
+      <c r="X29" s="0"/>
+      <c r="Y29" s="0"/>
+      <c r="Z29" s="0"/>
+      <c r="AA29" s="0"/>
+      <c r="AB29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="0"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0"/>
+      <c r="X30" s="0"/>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
+      <c r="AB30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="T31" s="0"/>
+      <c r="U31" s="0"/>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0"/>
+      <c r="X31" s="0"/>
+      <c r="Y31" s="0"/>
+      <c r="Z31" s="0"/>
+      <c r="AA31" s="0"/>
+      <c r="AB31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="0"/>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0"/>
+      <c r="X32" s="0"/>
+      <c r="Y32" s="0"/>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
+      <c r="AB32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
+      <c r="S34" s="0"/>
+      <c r="T34" s="0"/>
+      <c r="U34" s="0"/>
+      <c r="V34" s="0"/>
+      <c r="W34" s="0"/>
+      <c r="X34" s="0"/>
+      <c r="Y34" s="0"/>
+      <c r="Z34" s="0"/>
+      <c r="AA34" s="0"/>
+      <c r="AB34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="0"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="0"/>
+      <c r="U35" s="0"/>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0"/>
+      <c r="X35" s="0"/>
+      <c r="Y35" s="0"/>
+      <c r="Z35" s="0"/>
+      <c r="AA35" s="0"/>
+      <c r="AB35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="0"/>
+      <c r="N36" s="0"/>
+      <c r="O36" s="0"/>
+      <c r="P36" s="0"/>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="0"/>
+      <c r="S36" s="0"/>
+      <c r="T36" s="0"/>
+      <c r="U36" s="0"/>
+      <c r="V36" s="0"/>
+      <c r="W36" s="0"/>
+      <c r="X36" s="0"/>
+      <c r="Y36" s="0"/>
+      <c r="Z36" s="0"/>
+      <c r="AA36" s="0"/>
+      <c r="AB36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="0"/>
+      <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
+      <c r="S38" s="0"/>
+      <c r="T38" s="0"/>
+      <c r="U38" s="0"/>
+      <c r="V38" s="0"/>
+      <c r="W38" s="0"/>
+      <c r="X38" s="0"/>
+      <c r="Y38" s="0"/>
+      <c r="Z38" s="0"/>
+      <c r="AA38" s="0"/>
+      <c r="AB38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="0"/>
+      <c r="C39" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0"/>
+      <c r="L39" s="0"/>
+      <c r="M39" s="0"/>
+      <c r="N39" s="0"/>
+      <c r="O39" s="0"/>
+      <c r="P39" s="0"/>
+      <c r="Q39" s="0"/>
+      <c r="R39" s="0"/>
+      <c r="S39" s="0"/>
+      <c r="T39" s="0"/>
+      <c r="U39" s="0"/>
+      <c r="V39" s="0"/>
+      <c r="W39" s="0"/>
+      <c r="X39" s="0"/>
+      <c r="Y39" s="0"/>
+      <c r="Z39" s="0"/>
+      <c r="AA39" s="0"/>
+      <c r="AB39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="45"/>
+      <c r="B40" s="0"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="0"/>
+      <c r="L40" s="0"/>
+      <c r="M40" s="0"/>
+      <c r="N40" s="0"/>
+      <c r="O40" s="0"/>
+      <c r="P40" s="0"/>
+      <c r="Q40" s="0"/>
+      <c r="R40" s="0"/>
+      <c r="S40" s="0"/>
+      <c r="T40" s="0"/>
+      <c r="U40" s="0"/>
+      <c r="V40" s="0"/>
+      <c r="W40" s="0"/>
+      <c r="X40" s="0"/>
+      <c r="Y40" s="0"/>
+      <c r="Z40" s="0"/>
+      <c r="AA40" s="0"/>
+      <c r="AB40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="45"/>
+      <c r="B41" s="0"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+      <c r="L41" s="0"/>
+      <c r="M41" s="0"/>
+      <c r="N41" s="0"/>
+      <c r="O41" s="0"/>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
+      <c r="S41" s="0"/>
+      <c r="T41" s="0"/>
+      <c r="U41" s="0"/>
+      <c r="V41" s="0"/>
+      <c r="W41" s="0"/>
+      <c r="X41" s="0"/>
+      <c r="Y41" s="0"/>
+      <c r="Z41" s="0"/>
+      <c r="AA41" s="0"/>
+      <c r="AB41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="45"/>
+      <c r="B42" s="0"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+      <c r="K42" s="0"/>
+      <c r="L42" s="0"/>
+      <c r="M42" s="0"/>
+      <c r="N42" s="0"/>
+      <c r="O42" s="0"/>
+      <c r="P42" s="0"/>
+      <c r="Q42" s="0"/>
+      <c r="R42" s="0"/>
+      <c r="S42" s="0"/>
+      <c r="T42" s="0"/>
+      <c r="U42" s="0"/>
+      <c r="V42" s="0"/>
+      <c r="W42" s="0"/>
+      <c r="X42" s="0"/>
+      <c r="Y42" s="0"/>
+      <c r="Z42" s="0"/>
+      <c r="AA42" s="0"/>
+      <c r="AB42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="45"/>
+      <c r="B43" s="0"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="0"/>
+      <c r="N43" s="0"/>
+      <c r="O43" s="0"/>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
+      <c r="S43" s="0"/>
+      <c r="T43" s="0"/>
+      <c r="U43" s="0"/>
+      <c r="V43" s="0"/>
+      <c r="W43" s="0"/>
+      <c r="X43" s="0"/>
+      <c r="Y43" s="0"/>
+      <c r="Z43" s="0"/>
+      <c r="AA43" s="0"/>
+      <c r="AB43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="45"/>
+      <c r="B44" s="0"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="M44" s="0"/>
+      <c r="N44" s="0"/>
+      <c r="O44" s="0"/>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
+      <c r="R44" s="0"/>
+      <c r="S44" s="0"/>
+      <c r="T44" s="0"/>
+      <c r="U44" s="0"/>
+      <c r="V44" s="0"/>
+      <c r="W44" s="0"/>
+      <c r="X44" s="0"/>
+      <c r="Y44" s="0"/>
+      <c r="Z44" s="0"/>
+      <c r="AA44" s="0"/>
+      <c r="AB44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="45"/>
+      <c r="B45" s="0"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="0"/>
+      <c r="N45" s="0"/>
+      <c r="O45" s="0"/>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
+      <c r="R45" s="0"/>
+      <c r="S45" s="0"/>
+      <c r="T45" s="0"/>
+      <c r="U45" s="0"/>
+      <c r="V45" s="0"/>
+      <c r="W45" s="0"/>
+      <c r="X45" s="0"/>
+      <c r="Y45" s="0"/>
+      <c r="Z45" s="0"/>
+      <c r="AA45" s="0"/>
+      <c r="AB45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="45"/>
+      <c r="B46" s="0"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+      <c r="K46" s="0"/>
+      <c r="L46" s="0"/>
+      <c r="M46" s="0"/>
+      <c r="N46" s="0"/>
+      <c r="O46" s="0"/>
+      <c r="P46" s="0"/>
+      <c r="Q46" s="0"/>
+      <c r="R46" s="0"/>
+      <c r="S46" s="0"/>
+      <c r="T46" s="0"/>
+      <c r="U46" s="0"/>
+      <c r="V46" s="0"/>
+      <c r="W46" s="0"/>
+      <c r="X46" s="0"/>
+      <c r="Y46" s="0"/>
+      <c r="Z46" s="0"/>
+      <c r="AA46" s="0"/>
+      <c r="AB46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="45"/>
+      <c r="B47" s="0"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0"/>
+      <c r="M47" s="0"/>
+      <c r="N47" s="0"/>
+      <c r="O47" s="0"/>
+      <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
+      <c r="S47" s="0"/>
+      <c r="T47" s="0"/>
+      <c r="U47" s="0"/>
+      <c r="V47" s="0"/>
+      <c r="W47" s="0"/>
+      <c r="X47" s="0"/>
+      <c r="Y47" s="0"/>
+      <c r="Z47" s="0"/>
+      <c r="AA47" s="0"/>
+      <c r="AB47" s="0"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="29">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="U3:W3"/>
@@ -1194,9 +2133,32 @@
     <mergeCell ref="P15:R15"/>
     <mergeCell ref="U15:W15"/>
     <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="E26:M26"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="G28:M28"/>
+    <mergeCell ref="E29:M29"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="G31:M31"/>
+    <mergeCell ref="G32:M32"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="J37:P37"/>
+    <mergeCell ref="R37:AB37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="C39:C47"/>
   </mergeCells>
-  <conditionalFormatting sqref="AF10 AA22 V16 V10 V4 Q10 Q16 L13">
+  <conditionalFormatting sqref="AF10 AA22 V16 V10 V4 Q10 Q16 L13 B37">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29 E33">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1217,8 +2179,8 @@
   </sheetPr>
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="1" sqref="A26:AB47 A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1335,7 +2297,7 @@
       </c>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
-      <c r="X3" s="25"/>
+      <c r="X3" s="46"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
@@ -1378,7 +2340,7 @@
       <c r="V4" s="13"/>
       <c r="W4" s="14"/>
       <c r="X4" s="0"/>
-      <c r="Y4" s="26"/>
+      <c r="Y4" s="47"/>
       <c r="Z4" s="0"/>
       <c r="AA4" s="0"/>
       <c r="AB4" s="0"/>
@@ -1415,7 +2377,7 @@
       <c r="V5" s="7"/>
       <c r="W5" s="16"/>
       <c r="X5" s="0"/>
-      <c r="Y5" s="26"/>
+      <c r="Y5" s="47"/>
       <c r="Z5" s="0"/>
       <c r="AA5" s="0"/>
       <c r="AB5" s="0"/>
@@ -1454,7 +2416,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="11"/>
       <c r="X6" s="0"/>
-      <c r="Y6" s="26"/>
+      <c r="Y6" s="47"/>
       <c r="Z6" s="0"/>
       <c r="AA6" s="0"/>
       <c r="AB6" s="0"/>
@@ -1493,7 +2455,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="11"/>
       <c r="X7" s="0"/>
-      <c r="Y7" s="26"/>
+      <c r="Y7" s="47"/>
       <c r="Z7" s="0"/>
       <c r="AA7" s="0"/>
       <c r="AB7" s="0"/>
@@ -1528,7 +2490,7 @@
       <c r="V8" s="0"/>
       <c r="W8" s="0"/>
       <c r="X8" s="0"/>
-      <c r="Y8" s="27"/>
+      <c r="Y8" s="48"/>
       <c r="Z8" s="17"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="6"/>
@@ -1563,18 +2525,18 @@
       <c r="R9" s="9"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
       <c r="Z9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
       <c r="AE9" s="9" t="s">
         <v>10</v>
       </c>
@@ -1594,7 +2556,7 @@
       <c r="V10" s="0"/>
       <c r="W10" s="0"/>
       <c r="X10" s="0"/>
-      <c r="Y10" s="25"/>
+      <c r="Y10" s="46"/>
       <c r="Z10" s="12" t="n">
         <f aca="false">VLOOKUP(Z9,$A$2:$H$9,8)</f>
         <v>9</v>
@@ -1602,7 +2564,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="14"/>
       <c r="AC10" s="0"/>
-      <c r="AD10" s="25"/>
+      <c r="AD10" s="46"/>
       <c r="AE10" s="12" t="n">
         <f aca="false">VLOOKUP(AE9,$A$2:$H$9,8)</f>
         <v>8</v>
@@ -1631,12 +2593,12 @@
       <c r="V11" s="0"/>
       <c r="W11" s="0"/>
       <c r="X11" s="0"/>
-      <c r="Y11" s="26"/>
+      <c r="Y11" s="47"/>
       <c r="Z11" s="15"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="0"/>
-      <c r="AD11" s="26"/>
+      <c r="AD11" s="47"/>
       <c r="AE11" s="15"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="16"/>
@@ -1655,12 +2617,12 @@
       <c r="O12" s="7"/>
       <c r="T12" s="11"/>
       <c r="X12" s="0"/>
-      <c r="Y12" s="26"/>
+      <c r="Y12" s="47"/>
       <c r="Z12" s="0"/>
       <c r="AA12" s="0"/>
       <c r="AB12" s="0"/>
       <c r="AC12" s="0"/>
-      <c r="AD12" s="26"/>
+      <c r="AD12" s="47"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
@@ -1688,12 +2650,12 @@
       <c r="O13" s="7"/>
       <c r="T13" s="11"/>
       <c r="X13" s="0"/>
-      <c r="Y13" s="26"/>
+      <c r="Y13" s="47"/>
       <c r="Z13" s="0"/>
       <c r="AA13" s="0"/>
       <c r="AB13" s="0"/>
       <c r="AC13" s="0"/>
-      <c r="AD13" s="26"/>
+      <c r="AD13" s="47"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
@@ -1715,12 +2677,12 @@
       <c r="V14" s="7"/>
       <c r="W14" s="6"/>
       <c r="X14" s="0"/>
-      <c r="Y14" s="26"/>
+      <c r="Y14" s="47"/>
       <c r="Z14" s="0"/>
       <c r="AA14" s="0"/>
       <c r="AB14" s="0"/>
       <c r="AC14" s="0"/>
-      <c r="AD14" s="26"/>
+      <c r="AD14" s="47"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O15" s="18"/>
@@ -1736,13 +2698,13 @@
       </c>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="26"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="47"/>
       <c r="Z15" s="0"/>
       <c r="AA15" s="0"/>
       <c r="AB15" s="0"/>
       <c r="AC15" s="0"/>
-      <c r="AD15" s="26"/>
+      <c r="AD15" s="47"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P16" s="12" t="n">
@@ -1758,13 +2720,13 @@
       </c>
       <c r="V16" s="13"/>
       <c r="W16" s="14"/>
-      <c r="X16" s="25"/>
+      <c r="X16" s="46"/>
       <c r="Y16" s="0"/>
       <c r="Z16" s="0"/>
       <c r="AA16" s="0"/>
       <c r="AB16" s="0"/>
       <c r="AC16" s="0"/>
-      <c r="AD16" s="26"/>
+      <c r="AD16" s="47"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P17" s="15"/>
@@ -1775,12 +2737,12 @@
       <c r="V17" s="7"/>
       <c r="W17" s="16"/>
       <c r="X17" s="0"/>
-      <c r="Y17" s="26"/>
+      <c r="Y17" s="47"/>
       <c r="Z17" s="0"/>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
       <c r="AC17" s="0"/>
-      <c r="AD17" s="26"/>
+      <c r="AD17" s="47"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T18" s="11"/>

--- a/Übungen/05_Netzplan_Wiederholung2.xlsx
+++ b/Übungen/05_Netzplan_Wiederholung2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -677,8 +677,8 @@
   </sheetPr>
   <dimension ref="A1:AJ47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26:AB47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2179,8 +2179,8 @@
   </sheetPr>
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="1" sqref="A26:AB47 A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q13" activeCellId="0" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2258,9 +2258,13 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-      <c r="U2" s="6"/>
+      <c r="U2" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="V2" s="7"/>
-      <c r="W2" s="6"/>
+      <c r="W2" s="6" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -2337,8 +2341,12 @@
         <f aca="false">VLOOKUP(U3,$A$2:$H$9,8)</f>
         <v>3</v>
       </c>
-      <c r="V4" s="13"/>
-      <c r="W4" s="14"/>
+      <c r="V4" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="W4" s="14" t="n">
+        <v>7</v>
+      </c>
       <c r="X4" s="0"/>
       <c r="Y4" s="47"/>
       <c r="Z4" s="0"/>
@@ -2373,9 +2381,13 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="T5" s="11"/>
-      <c r="U5" s="15"/>
+      <c r="U5" s="15" t="n">
+        <v>19</v>
+      </c>
       <c r="V5" s="7"/>
-      <c r="W5" s="16"/>
+      <c r="W5" s="16" t="n">
+        <v>22</v>
+      </c>
       <c r="X5" s="0"/>
       <c r="Y5" s="47"/>
       <c r="Z5" s="0"/>
@@ -2481,9 +2493,13 @@
       <c r="H8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="P8" s="17"/>
+      <c r="P8" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="Q8" s="7"/>
-      <c r="R8" s="6"/>
+      <c r="R8" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="S8" s="8"/>
       <c r="T8" s="11"/>
       <c r="U8" s="0"/>
@@ -2491,14 +2507,22 @@
       <c r="W8" s="0"/>
       <c r="X8" s="0"/>
       <c r="Y8" s="48"/>
-      <c r="Z8" s="17"/>
+      <c r="Z8" s="17" t="n">
+        <v>22</v>
+      </c>
       <c r="AA8" s="7"/>
-      <c r="AB8" s="6"/>
+      <c r="AB8" s="6" t="n">
+        <v>31</v>
+      </c>
       <c r="AC8" s="0"/>
       <c r="AD8" s="0"/>
-      <c r="AE8" s="17"/>
+      <c r="AE8" s="17" t="n">
+        <v>31</v>
+      </c>
       <c r="AF8" s="7"/>
-      <c r="AG8" s="6"/>
+      <c r="AG8" s="6" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
@@ -2549,8 +2573,12 @@
         <f aca="false">VLOOKUP(P9,$A$2:$H$9,8)</f>
         <v>8</v>
       </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
+      <c r="Q10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="S10" s="8"/>
       <c r="U10" s="0"/>
       <c r="V10" s="0"/>
@@ -2561,16 +2589,24 @@
         <f aca="false">VLOOKUP(Z9,$A$2:$H$9,8)</f>
         <v>9</v>
       </c>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="14"/>
+      <c r="AA10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="AC10" s="0"/>
       <c r="AD10" s="46"/>
       <c r="AE10" s="12" t="n">
         <f aca="false">VLOOKUP(AE9,$A$2:$H$9,8)</f>
         <v>8</v>
       </c>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="14"/>
+      <c r="AF10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
@@ -2580,28 +2616,44 @@
       <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="17"/>
+      <c r="K11" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="L11" s="7"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="N11" s="8"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="15"/>
+      <c r="P11" s="15" t="n">
+        <v>4</v>
+      </c>
       <c r="Q11" s="7"/>
-      <c r="R11" s="16"/>
+      <c r="R11" s="16" t="n">
+        <v>12</v>
+      </c>
       <c r="T11" s="11"/>
       <c r="U11" s="0"/>
       <c r="V11" s="0"/>
       <c r="W11" s="0"/>
       <c r="X11" s="0"/>
       <c r="Y11" s="47"/>
-      <c r="Z11" s="15"/>
+      <c r="Z11" s="15" t="n">
+        <v>22</v>
+      </c>
       <c r="AA11" s="7"/>
-      <c r="AB11" s="16"/>
+      <c r="AB11" s="16" t="n">
+        <v>31</v>
+      </c>
       <c r="AC11" s="0"/>
       <c r="AD11" s="47"/>
-      <c r="AE11" s="15"/>
+      <c r="AE11" s="15" t="n">
+        <v>31</v>
+      </c>
       <c r="AF11" s="7"/>
-      <c r="AG11" s="16"/>
+      <c r="AG11" s="16" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
@@ -2665,17 +2717,29 @@
       <c r="C14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="15"/>
+      <c r="K14" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" s="7"/>
-      <c r="M14" s="16"/>
+      <c r="M14" s="16" t="n">
+        <v>4</v>
+      </c>
       <c r="O14" s="11"/>
-      <c r="P14" s="17"/>
+      <c r="P14" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="Q14" s="7"/>
-      <c r="R14" s="6"/>
+      <c r="R14" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="T14" s="18"/>
-      <c r="U14" s="17"/>
+      <c r="U14" s="17" t="n">
+        <v>12</v>
+      </c>
       <c r="V14" s="7"/>
-      <c r="W14" s="6"/>
+      <c r="W14" s="6" t="n">
+        <v>22</v>
+      </c>
       <c r="X14" s="0"/>
       <c r="Y14" s="47"/>
       <c r="Z14" s="0"/>
@@ -2711,15 +2775,23 @@
         <f aca="false">VLOOKUP(P15,$A$2:$H$9,8)</f>
         <v>4</v>
       </c>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="14"/>
+      <c r="Q16" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" s="14" t="n">
+        <v>4</v>
+      </c>
       <c r="S16" s="8"/>
       <c r="U16" s="12" t="n">
         <f aca="false">VLOOKUP(U15,$A$2:$H$9,8)</f>
         <v>10</v>
       </c>
-      <c r="V16" s="13"/>
-      <c r="W16" s="14"/>
+      <c r="V16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="X16" s="46"/>
       <c r="Y16" s="0"/>
       <c r="Z16" s="0"/>
@@ -2729,13 +2801,21 @@
       <c r="AD16" s="47"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P17" s="15"/>
+      <c r="P17" s="15" t="n">
+        <v>8</v>
+      </c>
       <c r="Q17" s="7"/>
-      <c r="R17" s="16"/>
+      <c r="R17" s="16" t="n">
+        <v>12</v>
+      </c>
       <c r="T17" s="11"/>
-      <c r="U17" s="15"/>
+      <c r="U17" s="15" t="n">
+        <v>12</v>
+      </c>
       <c r="V17" s="7"/>
-      <c r="W17" s="16"/>
+      <c r="W17" s="16" t="n">
+        <v>22</v>
+      </c>
       <c r="X17" s="0"/>
       <c r="Y17" s="47"/>
       <c r="Z17" s="0"/>
@@ -2760,9 +2840,13 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="Y20" s="18"/>
-      <c r="Z20" s="17"/>
+      <c r="Z20" s="17" t="n">
+        <v>22</v>
+      </c>
       <c r="AA20" s="7"/>
-      <c r="AB20" s="6"/>
+      <c r="AB20" s="6" t="n">
+        <v>29</v>
+      </c>
       <c r="AD20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2788,16 +2872,24 @@
         <f aca="false">VLOOKUP(Z21,$A$2:$H$9,8)</f>
         <v>7</v>
       </c>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="14"/>
+      <c r="AA22" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-      <c r="Z23" s="15"/>
+      <c r="Z23" s="15" t="n">
+        <v>24</v>
+      </c>
       <c r="AA23" s="7"/>
-      <c r="AB23" s="16"/>
+      <c r="AB23" s="16" t="n">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
